--- a/サイト構成ヒント.xlsx
+++ b/サイト構成ヒント.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masat\Documents\Django5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D8E69C-9BFB-4099-8EE3-338021EA5EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCCA720-EFF7-4BEB-8962-3251D2229A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
